--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.25</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.63</v>
@@ -1791,7 +1791,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.88</v>
@@ -2663,7 +2663,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR11" t="n">
         <v>1.72</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3314,10 +3314,10 @@
         <v>0.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -4186,10 +4186,10 @@
         <v>1.33</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR17" t="n">
         <v>1.22</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR20" t="n">
         <v>1.83</v>
@@ -5061,7 +5061,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR21" t="n">
         <v>1.96</v>
@@ -5279,7 +5279,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR22" t="n">
         <v>1.89</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.67</v>
@@ -6587,7 +6587,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.25</v>
@@ -7241,7 +7241,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR31" t="n">
         <v>2.97</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR33" t="n">
         <v>1.44</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.88</v>
@@ -9639,7 +9639,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR42" t="n">
         <v>1.71</v>
@@ -9854,10 +9854,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR43" t="n">
         <v>1.47</v>
@@ -10508,7 +10508,7 @@
         <v>2.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.63</v>
@@ -10726,7 +10726,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.88</v>
@@ -11383,7 +11383,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11601,7 +11601,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR51" t="n">
         <v>1.41</v>
@@ -11819,7 +11819,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR52" t="n">
         <v>1.41</v>
@@ -12034,7 +12034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.63</v>
@@ -13345,7 +13345,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR59" t="n">
         <v>1.73</v>
@@ -13560,10 +13560,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR60" t="n">
         <v>1.86</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR68" t="n">
         <v>2.07</v>
@@ -15525,7 +15525,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR69" t="n">
         <v>1.82</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.88</v>
@@ -16176,7 +16176,7 @@
         <v>0.63</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.67</v>
@@ -16397,7 +16397,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR73" t="n">
         <v>1.92</v>
@@ -16830,7 +16830,7 @@
         <v>0.86</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.88</v>
@@ -17269,7 +17269,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR77" t="n">
         <v>1.64</v>
@@ -17487,7 +17487,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR78" t="n">
         <v>2.02</v>
@@ -18138,7 +18138,7 @@
         <v>0.71</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81" t="n">
         <v>1</v>
@@ -18217,6 +18217,660 @@
       </c>
       <c r="BP81" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7963470</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>46003.58333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['64', '70']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X82" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7963368</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>46004.45833333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>17</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X83" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7963472</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>46004.57291666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['27', '54', '73']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X84" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.89</v>
@@ -3535,7 +3535,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR14" t="n">
         <v>2.31</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.88</v>
@@ -5715,7 +5715,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR24" t="n">
         <v>1.77</v>
@@ -6366,7 +6366,7 @@
         <v>0.33</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR32" t="n">
         <v>2.15</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.67</v>
@@ -10511,7 +10511,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR46" t="n">
         <v>1.43</v>
@@ -10944,7 +10944,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.88</v>
@@ -12691,7 +12691,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -13342,7 +13342,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.89</v>
@@ -14653,7 +14653,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.25</v>
@@ -17051,7 +17051,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR76" t="n">
         <v>1.41</v>
@@ -17266,7 +17266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.13</v>
@@ -18871,6 +18871,224 @@
       </c>
       <c r="BP84" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7963493</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>46005.45833333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>17</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['2', '75']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['5', '23', '35', '45+1', '57']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X85" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,9 @@
     <t>['2', '75']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['78', '85']</t>
   </si>
   <si>
@@ -590,6 +593,9 @@
   </si>
   <si>
     <t>['5', '23', '35', '45+1', '57']</t>
+  </si>
+  <si>
+    <t>['25', '46', '68']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1422,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1828,7 +1834,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1909,7 +1915,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2034,7 +2040,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2446,7 +2452,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.55</v>
@@ -2858,7 +2864,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>2.95</v>
@@ -3270,7 +3276,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>4.54</v>
@@ -3351,7 +3357,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3476,7 +3482,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3682,7 +3688,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>4.9</v>
@@ -3966,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4300,7 +4306,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>3.39</v>
@@ -4506,7 +4512,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>2.46</v>
@@ -4793,7 +4799,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>3.15</v>
@@ -4918,7 +4924,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5124,7 +5130,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5536,7 +5542,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.68</v>
@@ -5742,7 +5748,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5820,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1.78</v>
@@ -5948,7 +5954,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>3.74</v>
@@ -6154,7 +6160,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6360,7 +6366,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6441,7 +6447,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR27">
         <v>2.04</v>
@@ -6644,7 +6650,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1.89</v>
@@ -7184,7 +7190,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>1.55</v>
@@ -7390,7 +7396,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.92</v>
@@ -8008,7 +8014,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.7</v>
@@ -8214,7 +8220,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>6.45</v>
@@ -8420,7 +8426,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>2.15</v>
@@ -8498,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>0.25</v>
@@ -8707,7 +8713,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -9656,7 +9662,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -10068,7 +10074,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -10480,7 +10486,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>4.24</v>
@@ -10686,7 +10692,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3.85</v>
@@ -10892,7 +10898,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>1.74</v>
@@ -11098,7 +11104,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>4.25</v>
@@ -11304,7 +11310,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.12</v>
@@ -11510,7 +11516,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -11716,7 +11722,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2.88</v>
@@ -11797,7 +11803,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -11922,7 +11928,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>2.93</v>
@@ -12000,7 +12006,7 @@
         <v>0.6</v>
       </c>
       <c r="AP54">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12128,7 +12134,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>2.45</v>
@@ -12540,7 +12546,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12746,7 +12752,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>1.95</v>
@@ -13364,7 +13370,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13570,7 +13576,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.35</v>
@@ -13776,7 +13782,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.96</v>
@@ -14472,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -14600,7 +14606,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q67">
         <v>2.14</v>
@@ -15218,7 +15224,7 @@
         <v>119</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>2.7</v>
@@ -15505,7 +15511,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.41</v>
@@ -15630,7 +15636,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>3.5</v>
@@ -15836,7 +15842,7 @@
         <v>97</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16042,7 +16048,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16248,7 +16254,7 @@
         <v>119</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>4.03</v>
@@ -16454,7 +16460,7 @@
         <v>81</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>5.8</v>
@@ -16660,7 +16666,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q77">
         <v>2.65</v>
@@ -16866,7 +16872,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>2.33</v>
@@ -17278,7 +17284,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>2.95</v>
@@ -17356,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -17484,7 +17490,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>2.9</v>
@@ -17565,7 +17571,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR81">
         <v>1.65</v>
@@ -17896,7 +17902,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18102,7 +18108,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>3.65</v>
@@ -18308,7 +18314,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -18465,6 +18471,212 @@
       </c>
       <c r="BP85">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7963440</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>46010.5</v>
+      </c>
+      <c r="F86">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>144</v>
+      </c>
+      <c r="P86" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86">
+        <v>3.08</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>3.6</v>
+      </c>
+      <c r="T86">
+        <v>1.49</v>
+      </c>
+      <c r="U86">
+        <v>2.63</v>
+      </c>
+      <c r="V86">
+        <v>3.28</v>
+      </c>
+      <c r="W86">
+        <v>1.29</v>
+      </c>
+      <c r="X86">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y86">
+        <v>1.01</v>
+      </c>
+      <c r="Z86">
+        <v>2.05</v>
+      </c>
+      <c r="AA86">
+        <v>2.85</v>
+      </c>
+      <c r="AB86">
+        <v>3.05</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>6.25</v>
+      </c>
+      <c r="AE86">
+        <v>1.4</v>
+      </c>
+      <c r="AF86">
+        <v>2.7</v>
+      </c>
+      <c r="AG86">
+        <v>2.25</v>
+      </c>
+      <c r="AH86">
+        <v>1.57</v>
+      </c>
+      <c r="AI86">
+        <v>1.91</v>
+      </c>
+      <c r="AJ86">
+        <v>1.73</v>
+      </c>
+      <c r="AK86">
+        <v>1.36</v>
+      </c>
+      <c r="AL86">
+        <v>1.33</v>
+      </c>
+      <c r="AM86">
+        <v>1.53</v>
+      </c>
+      <c r="AN86">
+        <v>1.88</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>1.67</v>
+      </c>
+      <c r="AQ86">
+        <v>1.22</v>
+      </c>
+      <c r="AR86">
+        <v>1.56</v>
+      </c>
+      <c r="AS86">
+        <v>1.16</v>
+      </c>
+      <c r="AT86">
+        <v>2.72</v>
+      </c>
+      <c r="AU86">
+        <v>9</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>12</v>
+      </c>
+      <c r="AX86">
+        <v>10</v>
+      </c>
+      <c r="AY86">
+        <v>21</v>
+      </c>
+      <c r="AZ86">
+        <v>14</v>
+      </c>
+      <c r="BA86">
+        <v>9</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>14</v>
+      </c>
+      <c r="BD86">
+        <v>1.63</v>
+      </c>
+      <c r="BE86">
+        <v>7.8</v>
+      </c>
+      <c r="BF86">
+        <v>2.62</v>
+      </c>
+      <c r="BG86">
+        <v>1.44</v>
+      </c>
+      <c r="BH86">
+        <v>2.42</v>
+      </c>
+      <c r="BI86">
+        <v>1.81</v>
+      </c>
+      <c r="BJ86">
+        <v>1.92</v>
+      </c>
+      <c r="BK86">
+        <v>2.92</v>
+      </c>
+      <c r="BL86">
+        <v>1.5</v>
+      </c>
+      <c r="BM86">
+        <v>3.24</v>
+      </c>
+      <c r="BN86">
+        <v>1.26</v>
+      </c>
+      <c r="BO86">
+        <v>4.8</v>
+      </c>
+      <c r="BP86">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -957,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ3">
         <v>1.78</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20">
         <v>1.89</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -13242,7 +13242,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
         <v>0.88</v>
@@ -17568,7 +17568,7 @@
         <v>0.71</v>
       </c>
       <c r="AP81">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ81">
         <v>1.22</v>
@@ -17980,7 +17980,7 @@
         <v>1.14</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ83">
         <v>1.13</v>
@@ -18677,6 +18677,212 @@
       </c>
       <c r="BP86">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7963495</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>46011.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>81</v>
+      </c>
+      <c r="P87" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q87">
+        <v>2.95</v>
+      </c>
+      <c r="R87">
+        <v>2.11</v>
+      </c>
+      <c r="S87">
+        <v>3.2</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>2.59</v>
+      </c>
+      <c r="V87">
+        <v>3.05</v>
+      </c>
+      <c r="W87">
+        <v>1.32</v>
+      </c>
+      <c r="X87">
+        <v>9</v>
+      </c>
+      <c r="Y87">
+        <v>1.02</v>
+      </c>
+      <c r="Z87">
+        <v>2.4</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>2.9</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE87">
+        <v>1.32</v>
+      </c>
+      <c r="AF87">
+        <v>2.88</v>
+      </c>
+      <c r="AG87">
+        <v>1.9</v>
+      </c>
+      <c r="AH87">
+        <v>1.62</v>
+      </c>
+      <c r="AI87">
+        <v>1.85</v>
+      </c>
+      <c r="AJ87">
+        <v>1.85</v>
+      </c>
+      <c r="AK87">
+        <v>1.36</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.53</v>
+      </c>
+      <c r="AN87">
+        <v>0.88</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>0.89</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.74</v>
+      </c>
+      <c r="AS87">
+        <v>1.12</v>
+      </c>
+      <c r="AT87">
+        <v>2.86</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>9</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>7</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>6</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.69</v>
+      </c>
+      <c r="BE87">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF87">
+        <v>2.86</v>
+      </c>
+      <c r="BG87">
+        <v>1.27</v>
+      </c>
+      <c r="BH87">
+        <v>3.24</v>
+      </c>
+      <c r="BI87">
+        <v>1.51</v>
+      </c>
+      <c r="BJ87">
+        <v>2.35</v>
+      </c>
+      <c r="BK87">
+        <v>1.88</v>
+      </c>
+      <c r="BL87">
+        <v>1.84</v>
+      </c>
+      <c r="BM87">
+        <v>2.41</v>
+      </c>
+      <c r="BN87">
+        <v>1.48</v>
+      </c>
+      <c r="BO87">
+        <v>3.24</v>
+      </c>
+      <c r="BP87">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.22</v>
@@ -2009,7 +2009,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.13</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.88</v>
@@ -7023,7 +7023,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -7456,7 +7456,7 @@
         <v>2.33</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.78</v>
@@ -8549,7 +8549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8982,7 +8982,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.78</v>
@@ -13127,7 +13127,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13999,7 +13999,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14432,7 +14432,7 @@
         <v>0.71</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.67</v>
@@ -15089,7 +15089,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR67" t="n">
         <v>1.64</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.89</v>
@@ -17705,7 +17705,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR79" t="n">
         <v>1.79</v>
@@ -19743,6 +19743,224 @@
       </c>
       <c r="BP88" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7963494</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>46012.45833333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>18</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['7', '70']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S89" t="n">
+        <v>8</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>1.72</v>
@@ -3317,7 +3317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.78</v>
@@ -4189,7 +4189,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>1.22</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.89</v>
@@ -5279,7 +5279,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.89</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.78</v>
@@ -7241,7 +7241,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.97</v>
@@ -8764,7 +8764,7 @@
         <v>0.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.22</v>
@@ -12470,7 +12470,7 @@
         <v>0.83</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.67</v>
@@ -15522,7 +15522,7 @@
         <v>2.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.89</v>
@@ -17269,7 +17269,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.64</v>
@@ -17702,7 +17702,7 @@
         <v>0.29</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.22</v>
@@ -18577,7 +18577,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.66</v>
@@ -19961,6 +19961,224 @@
       </c>
       <c r="BP89" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7963474</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>46012.57291666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>18</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>6</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X90" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45872.69791666666</v>
+        <v>45872.66666666666</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.78</v>
@@ -2445,7 +2445,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR9" t="n">
         <v>1.48</v>
@@ -5276,7 +5276,7 @@
         <v>1.25</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR26" t="n">
         <v>2.29</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.67</v>
@@ -8331,7 +8331,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR36" t="n">
         <v>1.54</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.89</v>
@@ -10293,7 +10293,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR45" t="n">
         <v>1.28</v>
@@ -10947,7 +10947,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR48" t="n">
         <v>1.75</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.89</v>
@@ -12909,7 +12909,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR57" t="n">
         <v>2.2</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.22</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.78</v>
@@ -14871,7 +14871,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR66" t="n">
         <v>1.68</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -20179,6 +20179,224 @@
       </c>
       <c r="BP90" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7963471</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>46042.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>17</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['9', '75']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.78</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.89</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.67</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.78</v>
@@ -7023,7 +7023,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.89</v>
@@ -8549,7 +8549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8764,7 +8764,7 @@
         <v>0.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.22</v>
@@ -10508,7 +10508,7 @@
         <v>2.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.78</v>
@@ -12034,7 +12034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.22</v>
@@ -12470,7 +12470,7 @@
         <v>0.83</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.67</v>
@@ -13127,7 +13127,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13999,7 +13999,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR67" t="n">
         <v>1.64</v>
@@ -15522,7 +15522,7 @@
         <v>2.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.89</v>
@@ -16830,7 +16830,7 @@
         <v>0.86</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.11</v>
@@ -17702,10 +17702,10 @@
         <v>0.29</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.79</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.89</v>
@@ -19885,7 +19885,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR89" t="n">
         <v>1.89</v>
@@ -20100,7 +20100,7 @@
         <v>1.13</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20397,6 +20397,442 @@
       </c>
       <c r="BP91" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7963446</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>46046.45833333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['50', '76']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X92" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7963441</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>46046.55208333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['66', '85']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['2', '82']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X93" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.11</v>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR14" t="n">
         <v>2.31</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR19" t="n">
         <v>3.15</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.89</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR24" t="n">
         <v>1.77</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.11</v>
@@ -6369,7 +6369,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR27" t="n">
         <v>2.04</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.2</v>
@@ -7456,10 +7456,10 @@
         <v>2.33</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR32" t="n">
         <v>2.15</v>
@@ -8767,7 +8767,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8982,7 +8982,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.78</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR46" t="n">
         <v>1.43</v>
@@ -12037,7 +12037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12691,7 +12691,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -13560,7 +13560,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.89</v>
@@ -14432,7 +14432,7 @@
         <v>0.71</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.67</v>
@@ -14653,7 +14653,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.78</v>
@@ -15961,7 +15961,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.89</v>
@@ -17051,7 +17051,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR76" t="n">
         <v>1.41</v>
@@ -18138,10 +18138,10 @@
         <v>0.71</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR81" t="n">
         <v>1.65</v>
@@ -18574,7 +18574,7 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -19013,7 +19013,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR85" t="n">
         <v>1.67</v>
@@ -19231,7 +19231,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR86" t="n">
         <v>1.56</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -19882,7 +19882,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.2</v>
@@ -20833,6 +20833,442 @@
       </c>
       <c r="BP93" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7963488</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>46047.45833333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['10', '22']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S94" t="n">
+        <v>6</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X94" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7963445</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>46047.57291666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['30', '42', '89']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X95" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR21" t="n">
         <v>1.96</v>
@@ -7677,7 +7677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.44</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.67</v>
@@ -9639,7 +9639,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.71</v>
@@ -10290,7 +10290,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.11</v>
@@ -11598,10 +11598,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR51" t="n">
         <v>1.41</v>
@@ -11816,7 +11816,7 @@
         <v>2.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.89</v>
@@ -13563,7 +13563,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR60" t="n">
         <v>1.86</v>
@@ -13778,7 +13778,7 @@
         <v>1.2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.78</v>
@@ -13996,7 +13996,7 @@
         <v>0.2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.2</v>
@@ -15307,7 +15307,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR68" t="n">
         <v>2.07</v>
@@ -15958,7 +15958,7 @@
         <v>0.83</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.4</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.92</v>
@@ -17048,7 +17048,7 @@
         <v>1.43</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.9</v>
@@ -18359,7 +18359,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -21269,6 +21269,224 @@
       </c>
       <c r="BP95" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7963527</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>46048.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['34', '66']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR18" t="n">
         <v>2.13</v>
@@ -4843,7 +4843,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR20" t="n">
         <v>1.83</v>
@@ -5061,7 +5061,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR21" t="n">
         <v>1.96</v>
@@ -5276,7 +5276,7 @@
         <v>1.25</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>0.33</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -6805,7 +6805,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR29" t="n">
         <v>1.63</v>
@@ -7677,7 +7677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR33" t="n">
         <v>1.44</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.67</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR39" t="n">
         <v>1.94</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.67</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR42" t="n">
         <v>1.71</v>
@@ -9857,7 +9857,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR43" t="n">
         <v>1.47</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.67</v>
@@ -10290,7 +10290,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.11</v>
@@ -10729,7 +10729,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR47" t="n">
         <v>1.37</v>
@@ -10944,7 +10944,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.11</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11598,10 +11598,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR51" t="n">
         <v>1.41</v>
@@ -11816,10 +11816,10 @@
         <v>2.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR52" t="n">
         <v>1.41</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.2</v>
@@ -13342,10 +13342,10 @@
         <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR59" t="n">
         <v>1.73</v>
@@ -13563,7 +13563,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR60" t="n">
         <v>1.86</v>
@@ -13778,10 +13778,10 @@
         <v>1.2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR61" t="n">
         <v>1.35</v>
@@ -13996,7 +13996,7 @@
         <v>0.2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.2</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.9</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.2</v>
@@ -15307,7 +15307,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR68" t="n">
         <v>2.07</v>
@@ -15525,7 +15525,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR69" t="n">
         <v>1.82</v>
@@ -15743,7 +15743,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR70" t="n">
         <v>1.77</v>
@@ -15958,7 +15958,7 @@
         <v>0.83</v>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.4</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR73" t="n">
         <v>1.92</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -17048,7 +17048,7 @@
         <v>1.43</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.9</v>
@@ -17266,7 +17266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17487,7 +17487,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR78" t="n">
         <v>2.02</v>
@@ -17923,7 +17923,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR80" t="n">
         <v>1.59</v>
@@ -18359,7 +18359,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18795,7 +18795,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,7 +19010,7 @@
         <v>1.63</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.9</v>
@@ -19667,7 +19667,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR88" t="n">
         <v>2.01</v>
@@ -20318,7 +20318,7 @@
         <v>0.88</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.11</v>
@@ -21408,10 +21408,10 @@
         <v>0.89</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR96" t="n">
         <v>1.36</v>
@@ -21487,6 +21487,660 @@
       </c>
       <c r="BP96" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7963505</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>46052.58333333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7963447</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>46053.45833333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7963489</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>46053.57291666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['17', '36']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.9</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>1.48</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.7</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>2.29</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.2</v>
@@ -8331,7 +8331,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.54</v>
@@ -10293,7 +10293,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.28</v>
@@ -10947,7 +10947,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.75</v>
@@ -12909,7 +12909,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>2.2</v>
@@ -13560,7 +13560,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.27</v>
@@ -14871,7 +14871,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>1.68</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.8</v>
@@ -16833,7 +16833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -18138,7 +18138,7 @@
         <v>0.71</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.4</v>
@@ -18574,7 +18574,7 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ83" t="n">
         <v>1</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -20321,7 +20321,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.45</v>
@@ -21190,7 +21190,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.9</v>
@@ -22141,6 +22141,224 @@
       </c>
       <c r="BP99" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7963504</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>46054.45833333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X100" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.4</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -9418,7 +9418,7 @@
         <v>0.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.67</v>
@@ -12906,7 +12906,7 @@
         <v>1.2</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13999,7 +13999,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -15089,7 +15089,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR67" t="n">
         <v>1.64</v>
@@ -15304,7 +15304,7 @@
         <v>1.17</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.27</v>
@@ -17484,7 +17484,7 @@
         <v>1.86</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.7</v>
@@ -17705,7 +17705,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR79" t="n">
         <v>1.79</v>
@@ -19664,7 +19664,7 @@
         <v>0.88</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.8</v>
@@ -19885,7 +19885,7 @@
         <v>2</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR89" t="n">
         <v>1.89</v>
@@ -20539,7 +20539,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -21862,13 +21862,13 @@
         <v>2</v>
       </c>
       <c r="AV98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW98" t="n">
         <v>4</v>
       </c>
       <c r="AX98" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY98" t="n">
         <v>6</v>
@@ -22359,6 +22359,224 @@
       </c>
       <c r="BP100" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7963503</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>46055.58333333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['42', '68', '84']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S101" t="n">
+        <v>11</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X101" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.18</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11" t="n">
         <v>1.72</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3532,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR14" t="n">
         <v>2.31</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR15" t="n">
         <v>2.01</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR16" t="n">
         <v>2.2</v>
@@ -4186,10 +4186,10 @@
         <v>1.33</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR17" t="n">
         <v>1.22</v>
@@ -4625,7 +4625,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR19" t="n">
         <v>3.15</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.27</v>
@@ -5279,7 +5279,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR22" t="n">
         <v>1.89</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR23" t="n">
         <v>1.26</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR24" t="n">
         <v>1.77</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR25" t="n">
         <v>1.21</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR27" t="n">
         <v>2.04</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.7</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.8</v>
@@ -7241,7 +7241,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR31" t="n">
         <v>2.97</v>
@@ -7456,10 +7456,10 @@
         <v>2.33</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR32" t="n">
         <v>2.15</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.27</v>
@@ -7895,7 +7895,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR35" t="n">
         <v>1.76</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.18</v>
@@ -8764,10 +8764,10 @@
         <v>0.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -8982,7 +8982,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.8</v>
@@ -9203,7 +9203,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR40" t="n">
         <v>1.41</v>
@@ -9421,7 +9421,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR41" t="n">
         <v>2.53</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.7</v>
@@ -10075,7 +10075,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.92</v>
@@ -10508,10 +10508,10 @@
         <v>2.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR46" t="n">
         <v>1.43</v>
@@ -10726,7 +10726,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.8</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR49" t="n">
         <v>2.45</v>
@@ -12034,10 +12034,10 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12252,10 +12252,10 @@
         <v>0.6</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR54" t="n">
         <v>1.68</v>
@@ -12470,10 +12470,10 @@
         <v>0.83</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR55" t="n">
         <v>1.63</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -14214,10 +14214,10 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR63" t="n">
         <v>1.37</v>
@@ -14432,10 +14432,10 @@
         <v>0.71</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR64" t="n">
         <v>1.78</v>
@@ -14653,7 +14653,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -15522,7 +15522,7 @@
         <v>2.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.7</v>
@@ -15961,7 +15961,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -16176,10 +16176,10 @@
         <v>0.63</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR72" t="n">
         <v>1.36</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.27</v>
@@ -16615,7 +16615,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -16830,7 +16830,7 @@
         <v>0.86</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR76" t="n">
         <v>1.41</v>
@@ -17269,7 +17269,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR77" t="n">
         <v>1.64</v>
@@ -17702,7 +17702,7 @@
         <v>0.29</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.18</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.8</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR81" t="n">
         <v>1.65</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.27</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR83" t="n">
         <v>1.66</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.7</v>
@@ -19013,7 +19013,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR85" t="n">
         <v>1.67</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR86" t="n">
         <v>1.56</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR87" t="n">
         <v>1.74</v>
@@ -19882,7 +19882,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.18</v>
@@ -20100,10 +20100,10 @@
         <v>1.13</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -20536,7 +20536,7 @@
         <v>0.22</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.18</v>
@@ -20754,10 +20754,10 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR93" t="n">
         <v>1.87</v>
@@ -20972,10 +20972,10 @@
         <v>1.22</v>
       </c>
       <c r="AP94" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR94" t="n">
         <v>1.91</v>
@@ -21193,7 +21193,7 @@
         <v>1</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR95" t="n">
         <v>1.74</v>
@@ -22577,6 +22577,1096 @@
       </c>
       <c r="BP101" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7963517</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>46059.58333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>21</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['12', '22', '47']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X102" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7963475</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>46060.45833333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['15', '47', '87']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['56', '85']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X103" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7963490</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>46060.55208333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['7', '22']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X104" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7963513</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>46061.45833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>21</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['10', '62']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7963512</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>46061.57291666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>21</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X106" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.27</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR18" t="n">
         <v>2.13</v>
@@ -6366,7 +6366,7 @@
         <v>0.33</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.27</v>
@@ -6805,7 +6805,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR29" t="n">
         <v>1.63</v>
@@ -8985,7 +8985,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR39" t="n">
         <v>1.94</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.6</v>
@@ -10729,7 +10729,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR47" t="n">
         <v>1.37</v>
@@ -10944,7 +10944,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -13342,7 +13342,7 @@
         <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.7</v>
@@ -13781,7 +13781,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR61" t="n">
         <v>1.35</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.18</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR70" t="n">
         <v>1.77</v>
@@ -17266,7 +17266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.9</v>
@@ -17923,7 +17923,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR80" t="n">
         <v>1.59</v>
@@ -19010,7 +19010,7 @@
         <v>1.63</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.82</v>
@@ -19667,7 +19667,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR88" t="n">
         <v>2.01</v>
@@ -21629,7 +21629,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -22062,7 +22062,7 @@
         <v>1.1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.27</v>
@@ -23667,6 +23667,224 @@
       </c>
       <c r="BP106" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7963520</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>46066.58333333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>22</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['45', '90']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.82</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.91</v>
@@ -1573,7 +1573,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.82</v>
@@ -4622,10 +4622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR19" t="n">
         <v>3.15</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR20" t="n">
         <v>1.83</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>1.96</v>
@@ -6369,7 +6369,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR27" t="n">
         <v>2.04</v>
@@ -6587,7 +6587,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.73</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.9</v>
@@ -7677,7 +7677,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR33" t="n">
         <v>1.44</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.91</v>
@@ -8549,7 +8549,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8764,10 +8764,10 @@
         <v>0.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.6</v>
@@ -9418,7 +9418,7 @@
         <v>0.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.91</v>
@@ -9639,7 +9639,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR42" t="n">
         <v>1.71</v>
@@ -9857,7 +9857,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR43" t="n">
         <v>1.47</v>
@@ -10290,7 +10290,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.6</v>
@@ -11383,7 +11383,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11598,10 +11598,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR51" t="n">
         <v>1.41</v>
@@ -11816,10 +11816,10 @@
         <v>2.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR52" t="n">
         <v>1.41</v>
@@ -12037,7 +12037,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12470,7 +12470,7 @@
         <v>0.83</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.6</v>
@@ -12906,7 +12906,7 @@
         <v>1.2</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13345,7 +13345,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR59" t="n">
         <v>1.73</v>
@@ -13560,10 +13560,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.86</v>
@@ -13778,7 +13778,7 @@
         <v>1.2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.73</v>
@@ -13996,10 +13996,10 @@
         <v>0.2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -15089,7 +15089,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR67" t="n">
         <v>1.64</v>
@@ -15304,10 +15304,10 @@
         <v>1.17</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR68" t="n">
         <v>2.07</v>
@@ -15522,10 +15522,10 @@
         <v>2.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR69" t="n">
         <v>1.82</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.73</v>
@@ -15958,10 +15958,10 @@
         <v>0.83</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -16397,7 +16397,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR73" t="n">
         <v>1.92</v>
@@ -17048,7 +17048,7 @@
         <v>1.43</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.82</v>
@@ -17484,10 +17484,10 @@
         <v>1.86</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR78" t="n">
         <v>2.02</v>
@@ -17702,10 +17702,10 @@
         <v>0.29</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR79" t="n">
         <v>1.79</v>
@@ -18138,10 +18138,10 @@
         <v>0.71</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR81" t="n">
         <v>1.65</v>
@@ -18359,7 +18359,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
         <v>1.38</v>
@@ -18574,7 +18574,7 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.9</v>
@@ -18795,7 +18795,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19231,7 +19231,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR86" t="n">
         <v>1.56</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.91</v>
@@ -19664,7 +19664,7 @@
         <v>0.88</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.73</v>
@@ -19885,7 +19885,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR89" t="n">
         <v>1.89</v>
@@ -20100,7 +20100,7 @@
         <v>1.13</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.9</v>
@@ -20539,7 +20539,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.91</v>
@@ -20975,7 +20975,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR94" t="n">
         <v>1.91</v>
@@ -21190,7 +21190,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.82</v>
@@ -21408,10 +21408,10 @@
         <v>0.89</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR96" t="n">
         <v>1.36</v>
@@ -21844,10 +21844,10 @@
         <v>1.89</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR98" t="n">
         <v>1.38</v>
@@ -22065,7 +22065,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR99" t="n">
         <v>1.65</v>
@@ -22280,7 +22280,7 @@
         <v>1.11</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -22498,10 +22498,10 @@
         <v>0.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR101" t="n">
         <v>1.97</v>
@@ -22937,7 +22937,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR103" t="n">
         <v>1.43</v>
@@ -23588,7 +23588,7 @@
         <v>1.9</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.82</v>
@@ -23885,6 +23885,878 @@
       </c>
       <c r="BP107" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7963518</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>46067.45833333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>22</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['24', '59', '73', '87']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7963497</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>46067.55208333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>22</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['20', '48', '61']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X109" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7963496</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>46068.45833333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>22</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X110" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7963519</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>46068.57291666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>22</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['15', '77']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X111" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.25</v>
@@ -1355,7 +1355,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.73</v>
@@ -2881,7 +2881,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR11" t="n">
         <v>1.72</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.17</v>
@@ -3314,10 +3314,10 @@
         <v>0.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR13" t="n">
         <v>1.39</v>
@@ -3753,7 +3753,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR15" t="n">
         <v>2.01</v>
@@ -3971,7 +3971,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR16" t="n">
         <v>2.2</v>
@@ -4186,10 +4186,10 @@
         <v>1.33</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR17" t="n">
         <v>1.22</v>
@@ -5276,10 +5276,10 @@
         <v>1.25</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR22" t="n">
         <v>1.89</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR23" t="n">
         <v>1.26</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR25" t="n">
         <v>1.21</v>
@@ -7241,7 +7241,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR31" t="n">
         <v>2.97</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.17</v>
@@ -7895,7 +7895,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR35" t="n">
         <v>1.76</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR40" t="n">
         <v>1.41</v>
@@ -9421,7 +9421,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR41" t="n">
         <v>2.53</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.17</v>
@@ -9854,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.82</v>
@@ -10075,7 +10075,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR44" t="n">
         <v>1.92</v>
@@ -10508,7 +10508,7 @@
         <v>2.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.82</v>
@@ -10726,7 +10726,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.73</v>
@@ -11165,7 +11165,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR49" t="n">
         <v>2.45</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.82</v>
@@ -12034,7 +12034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.17</v>
@@ -12255,7 +12255,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR54" t="n">
         <v>1.68</v>
@@ -12473,7 +12473,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR55" t="n">
         <v>1.63</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.82</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.25</v>
@@ -14214,10 +14214,10 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR63" t="n">
         <v>1.37</v>
@@ -14435,7 +14435,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR64" t="n">
         <v>1.78</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.82</v>
@@ -16176,10 +16176,10 @@
         <v>0.63</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR72" t="n">
         <v>1.36</v>
@@ -16612,10 +16612,10 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -16830,7 +16830,7 @@
         <v>0.86</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR77" t="n">
         <v>1.64</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.17</v>
@@ -18577,7 +18577,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR83" t="n">
         <v>1.66</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.82</v>
@@ -19449,7 +19449,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR87" t="n">
         <v>1.74</v>
@@ -20103,7 +20103,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR90" t="n">
         <v>1.86</v>
@@ -20318,7 +20318,7 @@
         <v>0.88</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>0.22</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.25</v>
@@ -20757,7 +20757,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR93" t="n">
         <v>1.87</v>
@@ -21626,7 +21626,7 @@
         <v>0.78</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.73</v>
@@ -22716,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR102" t="n">
         <v>1.4</v>
@@ -22934,7 +22934,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.17</v>
@@ -23155,7 +23155,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR104" t="n">
         <v>1.95</v>
@@ -23373,7 +23373,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -24757,6 +24757,660 @@
       </c>
       <c r="BP111" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7963498</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>46073.58333333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>23</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['41', '82']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['11', '36']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7963507</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>46074.45833333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>23</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['41', '77']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X113" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7963514</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>46074.55208333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['51', '66', '83']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.17</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.09</v>
@@ -2445,7 +2445,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR9" t="n">
         <v>1.48</v>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.09</v>
@@ -3535,7 +3535,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR14" t="n">
         <v>2.31</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.55</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.92</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR24" t="n">
         <v>1.77</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR26" t="n">
         <v>2.29</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.82</v>
@@ -7456,10 +7456,10 @@
         <v>2.33</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR32" t="n">
         <v>2.15</v>
@@ -8331,7 +8331,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR36" t="n">
         <v>1.54</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.25</v>
@@ -8982,7 +8982,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.73</v>
@@ -10293,7 +10293,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR45" t="n">
         <v>1.28</v>
@@ -10511,7 +10511,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR46" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR48" t="n">
         <v>1.75</v>
@@ -12252,7 +12252,7 @@
         <v>0.6</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.92</v>
@@ -12691,7 +12691,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR56" t="n">
         <v>1.31</v>
@@ -12909,7 +12909,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR57" t="n">
         <v>2.2</v>
@@ -14432,7 +14432,7 @@
         <v>0.71</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.55</v>
@@ -14653,7 +14653,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR65" t="n">
         <v>1.58</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR66" t="n">
         <v>1.68</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.17</v>
@@ -16833,7 +16833,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR75" t="n">
         <v>1.47</v>
@@ -17051,7 +17051,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR76" t="n">
         <v>1.41</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.73</v>
@@ -19013,7 +19013,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR85" t="n">
         <v>1.67</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.17</v>
@@ -19882,7 +19882,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.25</v>
@@ -20321,7 +20321,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR91" t="n">
         <v>1.45</v>
@@ -20972,7 +20972,7 @@
         <v>1.22</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.17</v>
@@ -21193,7 +21193,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR95" t="n">
         <v>1.74</v>
@@ -22283,7 +22283,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR100" t="n">
         <v>1.67</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.92</v>
@@ -23370,7 +23370,7 @@
         <v>0.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.55</v>
@@ -23591,7 +23591,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR106" t="n">
         <v>1.86</v>
@@ -25411,6 +25411,442 @@
       </c>
       <c r="BP114" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7963521</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>46075.45833333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>23</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['51', '53', '57', '88']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X115" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7963506</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>46075.57291666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X116" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Croatia Prva HNL_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.92</v>
@@ -1573,7 +1573,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.09</v>
@@ -2009,7 +2009,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.91</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.17</v>
@@ -3099,7 +3099,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.55</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.73</v>
@@ -4625,7 +4625,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR19" t="n">
         <v>3.15</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR20" t="n">
         <v>1.83</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.92</v>
@@ -6366,10 +6366,10 @@
         <v>0.33</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR27" t="n">
         <v>2.04</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR37" t="n">
         <v>1.48</v>
@@ -8767,7 +8767,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR38" t="n">
         <v>1.59</v>
@@ -9857,7 +9857,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR43" t="n">
         <v>1.47</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.55</v>
@@ -10944,7 +10944,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.91</v>
@@ -11383,7 +11383,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.57</v>
@@ -11819,7 +11819,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR52" t="n">
         <v>1.41</v>
@@ -12037,7 +12037,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR53" t="n">
         <v>1.32</v>
@@ -12252,7 +12252,7 @@
         <v>0.6</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.92</v>
@@ -13127,7 +13127,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13342,10 +13342,10 @@
         <v>2.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR59" t="n">
         <v>1.73</v>
@@ -13560,7 +13560,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.17</v>
@@ -13999,7 +13999,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR62" t="n">
         <v>1.37</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.91</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR67" t="n">
         <v>1.64</v>
@@ -15525,7 +15525,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR69" t="n">
         <v>1.82</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.73</v>
@@ -15961,7 +15961,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR71" t="n">
         <v>1.41</v>
@@ -17266,7 +17266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.09</v>
@@ -17487,7 +17487,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR78" t="n">
         <v>2.02</v>
@@ -17705,7 +17705,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR79" t="n">
         <v>1.79</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.73</v>
@@ -18138,10 +18138,10 @@
         <v>0.71</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR81" t="n">
         <v>1.65</v>
@@ -18574,7 +18574,7 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.09</v>
@@ -18795,7 +18795,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,7 +19010,7 @@
         <v>1.63</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.92</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR86" t="n">
         <v>1.56</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.92</v>
@@ -19885,7 +19885,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR89" t="n">
         <v>1.89</v>
@@ -20539,7 +20539,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR92" t="n">
         <v>1.43</v>
@@ -20975,7 +20975,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR94" t="n">
         <v>1.91</v>
@@ -21190,7 +21190,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.92</v>
@@ -21847,7 +21847,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR98" t="n">
         <v>1.38</v>
@@ -22062,7 +22062,7 @@
         <v>1.1</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.17</v>
@@ -22280,7 +22280,7 @@
         <v>1.11</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.91</v>
@@ -22501,7 +22501,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR101" t="n">
         <v>1.97</v>
@@ -22937,7 +22937,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR103" t="n">
         <v>1.43</v>
@@ -23370,7 +23370,7 @@
         <v>0.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.55</v>
@@ -23806,7 +23806,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.73</v>
@@ -24027,7 +24027,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR108" t="n">
         <v>2.07</v>
@@ -24463,7 +24463,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR110" t="n">
         <v>1.32</v>
@@ -24678,10 +24678,10 @@
         <v>1.7</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR111" t="n">
         <v>1.62</v>
@@ -25550,7 +25550,7 @@
         <v>1.82</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.92</v>
@@ -25847,6 +25847,660 @@
       </c>
       <c r="BP116" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7963508</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>46080.58333333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>24</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X117" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7963515</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>46081.45833333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>24</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['57', '90+5']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X118" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7963477</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>46081.57291666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
